--- a/Outputs/For Test/BUFF.xlsx
+++ b/Outputs/For Test/BUFF.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>Benchmark BUFF Vulnerability Factor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Benchmark For Test/BUFF Vulnerability Factor</t>
   </si>
   <si>
     <t>Types</t>
@@ -34,34 +34,19 @@
     <t>Vulnerability Factors (VF)</t>
   </si>
   <si>
-    <t>Gate Inputs List</t>
+    <t>Gate Delay</t>
   </si>
   <si>
     <t>PI</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>AND</t>
   </si>
   <si>
-    <t>['1', '2']</t>
-  </si>
-  <si>
     <t>BUFF</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
-    <t>['4']</t>
-  </si>
-  <si>
     <t>BUFF(PO)</t>
-  </si>
-  <si>
-    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -506,8 +491,8 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
+      <c r="F3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,13 +511,13 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
+      <c r="F4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -546,13 +531,13 @@
       <c r="E5" s="3">
         <v>0.5</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
+      <c r="F5" s="3">
+        <v>19.8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -566,13 +551,13 @@
       <c r="E6" s="3">
         <v>0.5</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
+      <c r="F6" s="3">
+        <v>29.87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -586,13 +571,13 @@
       <c r="E7" s="3">
         <v>0.5</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
+      <c r="F7" s="3">
+        <v>39.94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -606,8 +591,8 @@
       <c r="E8" s="3">
         <v>0.5</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
+      <c r="F8" s="3">
+        <v>50.01</v>
       </c>
     </row>
   </sheetData>
